--- a/app data.xlsx
+++ b/app data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ahmed/Desktop/R/Bioinformatics_PhD_Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F639B3BB-D67C-7C49-A2C9-B06AB8FBAAD5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBDCD13-2568-5346-B4CE-2C426AFC19F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,9 +330,6 @@
     <t>Bioinformatics and Systems Biology</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>http://bioinformatics.bc.edu/wikis/main/index.php/Main_Page</t>
   </si>
   <si>
@@ -526,6 +523,9 @@
   </si>
   <si>
     <t>US News Ranking (2018)</t>
+  </si>
+  <si>
+    <t>Website</t>
   </si>
 </sst>
 </file>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,7 +864,7 @@
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="34.5" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -887,16 +887,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -921,14 +921,14 @@
       <c r="G2" s="2">
         <v>19</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2">
         <v>-118.4452</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>34.068899999999999</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -953,14 +953,14 @@
       <c r="G3" s="2">
         <v>7</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="2">
         <v>-122.16970000000001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>37.427500000000002</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -980,19 +980,19 @@
         <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="2">
         <v>70</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="2">
         <v>-122.0609</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>36.991399999999999</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1017,14 +1017,14 @@
       <c r="G5" s="2">
         <v>22</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="2">
         <v>-118.2851</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>34.022399999999998</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1049,14 +1049,14 @@
       <c r="G6" s="2">
         <v>22</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="2">
         <v>-122.2585</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>37.871899999999997</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1079,14 +1079,14 @@
       <c r="G7" s="2">
         <v>33</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="2">
         <v>-117.8443</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>33.640500000000003</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1106,19 +1106,19 @@
         <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="2">
         <v>41</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="2">
         <v>-117.23399999999999</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>32.880099999999999</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1143,14 +1143,14 @@
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="2">
         <v>-72.922300000000007</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>41.316299999999998</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1175,14 +1175,14 @@
       <c r="G10" s="2">
         <v>35</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="2">
         <v>-82.354900000000001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>29.643599999999999</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1202,19 +1202,19 @@
         <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="2">
         <v>35</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="2">
         <v>-84.396299999999997</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>33.775599999999997</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1237,78 +1237,78 @@
       <c r="G12" s="2">
         <v>46</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="2">
         <v>-83.377300000000005</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>33.948</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="3">
         <v>43435</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="4">
         <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="2">
         <v>-87.598699999999994</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>41.788600000000002</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="3">
         <v>43101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="4">
         <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" s="2">
         <v>89</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="2">
         <v>-86.513300000000001</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>39.178400000000003</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1331,14 +1331,14 @@
       <c r="G15" s="2">
         <v>119</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="2">
         <v>-93.646500000000003</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>42.026600000000002</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1363,14 +1363,14 @@
       <c r="G16" s="2">
         <v>63</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="2">
         <v>-76.942599999999999</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>38.986899999999999</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1395,14 +1395,14 @@
       <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="2">
         <v>-76.620500000000007</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>39.329900000000002</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1425,14 +1425,14 @@
       <c r="G18" s="2">
         <v>59</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="2">
         <v>-71.806299999999993</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>42.2746</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1457,14 +1457,14 @@
       <c r="G19" s="2">
         <v>38</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2">
         <v>-71.168499999999995</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>42.335500000000003</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1487,14 +1487,14 @@
       <c r="G20" s="2">
         <v>42</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="2">
         <v>-71.105400000000003</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>42.350499999999997</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1517,19 +1517,19 @@
       <c r="G21" s="2">
         <v>2</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="2">
         <v>-71.116699999999994</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>42.377000000000002</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="3">
         <v>43435</v>
@@ -1544,19 +1544,19 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="2">
         <v>3</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="2">
         <v>-71.094200000000001</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>42.360100000000003</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1581,14 +1581,14 @@
       <c r="G23" s="2">
         <v>27</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="2">
         <v>-83.738200000000006</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>42.277999999999999</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1613,14 +1613,14 @@
       <c r="G24" s="2">
         <v>19</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="2">
         <v>-90.3108</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>38.648800000000001</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1645,14 +1645,14 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="2">
         <v>-74.651399999999995</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>40.344000000000001</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1677,14 +1677,14 @@
       <c r="G26" s="2">
         <v>89</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="2">
         <v>-78.789000000000001</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>43.000799999999998</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1709,14 +1709,14 @@
       <c r="G27" s="2">
         <v>80</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2">
         <v>-73.123400000000004</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>40.912399999999998</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1739,14 +1739,14 @@
       <c r="G28" s="2">
         <v>16</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="2">
         <v>-76.473500000000001</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>42.453400000000002</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1766,19 +1766,19 @@
         <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="2">
         <v>30</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="2">
         <v>-73.996499999999997</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>40.729500000000002</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1803,14 +1803,14 @@
       <c r="G30" s="2">
         <v>3</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="2">
         <v>-73.962599999999995</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>40.807499999999997</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1833,14 +1833,14 @@
       <c r="G31" s="2">
         <v>30</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="2">
         <v>-79.046899999999994</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>35.904899999999998</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1865,14 +1865,14 @@
       <c r="G32" s="2">
         <v>8</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="2">
         <v>-78.938199999999995</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>36.001399999999997</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1897,14 +1897,14 @@
       <c r="G33" s="2">
         <v>147</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="2">
         <v>-84.515000000000001</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <v>39.132899999999999</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1924,19 +1924,19 @@
         <v>36</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="2">
         <v>25</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="2">
         <v>-79.942999999999998</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>40.442799999999998</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1956,19 +1956,19 @@
         <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="2">
         <v>59</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="2">
         <v>-77.859899999999996</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>40.798200000000001</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1993,14 +1993,14 @@
       <c r="G36" s="2">
         <v>8</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="2">
         <v>-75.193200000000004</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <v>39.952199999999998</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2025,14 +2025,14 @@
       <c r="G37" s="2">
         <v>14</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="2">
         <v>-71.402500000000003</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>41.826799999999999</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2055,14 +2055,14 @@
       <c r="G38" s="2">
         <v>76</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="2">
         <v>-80.423400000000001</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>37.228400000000001</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2082,83 +2082,83 @@
         <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="2">
         <v>59</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="2">
         <v>-122.3035</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>47.655299999999997</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="3">
         <v>43435</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="4">
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="2">
         <v>63</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="2">
         <v>-77.048599999999993</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>38.899700000000003</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" s="3">
         <v>43465</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="4">
         <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G41" s="2">
         <v>49</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="2">
         <v>-89.412499999999994</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>43.076599999999999</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
